--- a/MDO/client-assets/assets/common/user-bulk-creation-upload-sample/user-bulk-upload-sample.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-creation-upload-sample/user-bulk-upload-sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOT_NIC\Assets\forked\sunbird-cb-portal-assets\MDO\client-assets\assets\common\user-bulk-creation-upload-sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KB-iGot\Fork Repo\sunbird-cb-portal-assets\MDO\client-assets\assets\common\user-bulk-creation-upload-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD60A29-8629-430A-8223-5F665E1191C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C74520E-2CB1-4691-8771-76E807D1F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>External System ID</t>
   </si>
   <si>
-    <t>Rozgar Mela, Finance</t>
-  </si>
-  <si>
     <t>Sahil Mehtha</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>eHRMSN</t>
+  </si>
+  <si>
+    <t>Rozgar Mela; Finance</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -611,7 +613,7 @@
     <col min="11" max="11" width="14.6640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="18.77734375" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,10 +662,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4">
         <v>9874561230</v>
@@ -672,13 +674,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -693,18 +695,18 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5">
         <v>7658478596</v>
@@ -713,13 +715,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -737,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
         <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -748,10 +750,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
         <v>7845123690</v>
@@ -760,13 +762,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -782,10 +784,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -793,10 +795,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5">
         <v>7894561230</v>
@@ -805,13 +807,13 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -829,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
         <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
